--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33588.1530374998</v>
+        <v>6643389.647944008</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33588.1530374998</v>
+        <v>6643389.647944008</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6504.874213027239</v>
+        <v>392065.4835746521</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6504.874213027239</v>
+        <v>392065.4835746521</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960522123.3252746</v>
+        <v>40687668.70317185</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9659.354202676888</v>
+        <v>1091014.160232231</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17484.30725135801</v>
+        <v>1878124.810440103</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25309.26030003912</v>
+        <v>2665235.460647975</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33375.54638288645</v>
+        <v>3421981.909871926</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41338.04936203766</v>
+        <v>4217255.097459836</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49257.12525454793</v>
+        <v>5004125.028790476</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57176.20114705824</v>
+        <v>5790994.960121127</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65095.27703956838</v>
+        <v>6577864.89145187</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73162.36403927</v>
+        <v>7334221.135560974</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81272.30315852663</v>
+        <v>8099104.951462897</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89244.53909492386</v>
+        <v>8894854.35539216</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97173.36420860057</v>
+        <v>9681965.005600037</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105102.1893222772</v>
+        <v>10469075.65580791</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113010.9309282299</v>
+        <v>11249899.52657178</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121171.1016182382</v>
+        <v>12002535.70539842</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288.0000000001242</v>
@@ -27052,10 +27052,10 @@
         <v>61.00000000011407</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>2.221440809080377e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
